--- a/data/hotels_by_city/Denver/Denver_shard_273.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_273.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g656236-d12277175-Reviews-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
   </si>
   <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-TownePlace-Suites-By-Marriott-Denver-SouthLone-Tree.h18090296.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,497 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r591291477-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>656236</t>
+  </si>
+  <si>
+    <t>12277175</t>
+  </si>
+  <si>
+    <t>591291477</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>Beautiful and clean</t>
+  </si>
+  <si>
+    <t>I was surprised at how wonderful this Marriott is. I was in lone tree for some appointments, and i stayed the night, and the rooms were bright, clean, and airy. I will definitely stay here again! Staff was friendly and helpful. Walls are a little thin and I heard a dog barking since it is pet friendly, but all was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Beth E, Director of Sales at TownePlace Suites Denver South/Lone Tree, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>I was surprised at how wonderful this Marriott is. I was in lone tree for some appointments, and i stayed the night, and the rooms were bright, clean, and airy. I will definitely stay here again! Staff was friendly and helpful. Walls are a little thin and I heard a dog barking since it is pet friendly, but all was ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r590727576-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>590727576</t>
+  </si>
+  <si>
+    <t>06/25/2018</t>
+  </si>
+  <si>
+    <t>Very comfortable accomodations and stellar staff</t>
+  </si>
+  <si>
+    <t>We came down yesterday from four hours away for a surgery for my young adult daughter ... she had her tonsils today. Because we live and have to travel through a more remote area, they advised we have a day of rest and not try to drive home until Wednesday. That's 3 nights in a hotel after a surgery. We NEEDED someplace comfortable enough to be cooped up in, AND with more than just a mini fridge for all the juice, ice cream, slushies, etc. 
+We like the beds at Marriott properties so we chose TownPlace. So far it has been stellar. The front desk staff apologized for checking being slightly slow due to a frozen computer, but I've had waaaay slower for no reason other than people being slow. They offer a glass of fresh water when you arrive. We had a LOT of luggage and all the carts were in use, so they found one and brought it out to us quickly. They have a small section of snacks and beverages, including ice cream, so we didn't have to find a grocery store right away to get some for after the surgery. 
+When we got to the room, our toilet was sluggish, so we asked for a plunger and it was at our door in under 2 minutes. This staff really hustles. 
+We didn't get to check out the breakfast yet, but they have a "room service" service...We came down yesterday from four hours away for a surgery for my young adult daughter ... she had her tonsils today. Because we live and have to travel through a more remote area, they advised we have a day of rest and not try to drive home until Wednesday. That's 3 nights in a hotel after a surgery. We NEEDED someplace comfortable enough to be cooped up in, AND with more than just a mini fridge for all the juice, ice cream, slushies, etc. We like the beds at Marriott properties so we chose TownPlace. So far it has been stellar. The front desk staff apologized for checking being slightly slow due to a frozen computer, but I've had waaaay slower for no reason other than people being slow. They offer a glass of fresh water when you arrive. We had a LOT of luggage and all the carts were in use, so they found one and brought it out to us quickly. They have a small section of snacks and beverages, including ice cream, so we didn't have to find a grocery store right away to get some for after the surgery. When we got to the room, our toilet was sluggish, so we asked for a plunger and it was at our door in under 2 minutes. This staff really hustles. We didn't get to check out the breakfast yet, but they have a "room service" service available. A national business called OrderInn delivers right to your door, and there is a menu in the room (good for us because we don't want to go out). There is a great selection of restaurants in the area if you do want to eat out (we went to Maggiano's last night after we arrived). When we asked about places that might deliver to the hotel, in addition to OrderInn, the front desk clerk also recommended Uber Eats for delivery ... we don't have anything like that where we live so we would not have thought of it. The room also has a kitchenette for preparing food (or reheating leftovers). Full size fridge and freezer (which we needed), dishwasher, 2 burner stove top, coffee maker, dishes, paper towels, etc. We brought a kettle and a small bullet blender to easily make things for my daughter while she recuperates. We had to leave early for the surgery center, so I left our dishes in the sink to take care of later. When we got back, not only was the room completely made up, but they had WASHED OUR DISHES. Other features ... large table with 4 chairs for eating/working space; lots of outlets in good locations (not behind furniture) so all 3 of use can charge our multiple devices; a large sitting chair with ottoman (we have a studio room ... I think some of the suites have pull out sofas).It's also located next to a Cabela's and it's an absolutely beautiful area with many outdoor activities available (for those not having surgery). I could go on. It's a really great place with a fantastic staff. What could have been a nightmare, has been an absolute breeze so far.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Beth E, Director of Sales at TownePlace Suites Denver South/Lone Tree, responded to this reviewResponded June 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2018</t>
+  </si>
+  <si>
+    <t>We came down yesterday from four hours away for a surgery for my young adult daughter ... she had her tonsils today. Because we live and have to travel through a more remote area, they advised we have a day of rest and not try to drive home until Wednesday. That's 3 nights in a hotel after a surgery. We NEEDED someplace comfortable enough to be cooped up in, AND with more than just a mini fridge for all the juice, ice cream, slushies, etc. 
+We like the beds at Marriott properties so we chose TownPlace. So far it has been stellar. The front desk staff apologized for checking being slightly slow due to a frozen computer, but I've had waaaay slower for no reason other than people being slow. They offer a glass of fresh water when you arrive. We had a LOT of luggage and all the carts were in use, so they found one and brought it out to us quickly. They have a small section of snacks and beverages, including ice cream, so we didn't have to find a grocery store right away to get some for after the surgery. 
+When we got to the room, our toilet was sluggish, so we asked for a plunger and it was at our door in under 2 minutes. This staff really hustles. 
+We didn't get to check out the breakfast yet, but they have a "room service" service...We came down yesterday from four hours away for a surgery for my young adult daughter ... she had her tonsils today. Because we live and have to travel through a more remote area, they advised we have a day of rest and not try to drive home until Wednesday. That's 3 nights in a hotel after a surgery. We NEEDED someplace comfortable enough to be cooped up in, AND with more than just a mini fridge for all the juice, ice cream, slushies, etc. We like the beds at Marriott properties so we chose TownPlace. So far it has been stellar. The front desk staff apologized for checking being slightly slow due to a frozen computer, but I've had waaaay slower for no reason other than people being slow. They offer a glass of fresh water when you arrive. We had a LOT of luggage and all the carts were in use, so they found one and brought it out to us quickly. They have a small section of snacks and beverages, including ice cream, so we didn't have to find a grocery store right away to get some for after the surgery. When we got to the room, our toilet was sluggish, so we asked for a plunger and it was at our door in under 2 minutes. This staff really hustles. We didn't get to check out the breakfast yet, but they have a "room service" service available. A national business called OrderInn delivers right to your door, and there is a menu in the room (good for us because we don't want to go out). There is a great selection of restaurants in the area if you do want to eat out (we went to Maggiano's last night after we arrived). When we asked about places that might deliver to the hotel, in addition to OrderInn, the front desk clerk also recommended Uber Eats for delivery ... we don't have anything like that where we live so we would not have thought of it. The room also has a kitchenette for preparing food (or reheating leftovers). Full size fridge and freezer (which we needed), dishwasher, 2 burner stove top, coffee maker, dishes, paper towels, etc. We brought a kettle and a small bullet blender to easily make things for my daughter while she recuperates. We had to leave early for the surgery center, so I left our dishes in the sink to take care of later. When we got back, not only was the room completely made up, but they had WASHED OUR DISHES. Other features ... large table with 4 chairs for eating/working space; lots of outlets in good locations (not behind furniture) so all 3 of use can charge our multiple devices; a large sitting chair with ottoman (we have a studio room ... I think some of the suites have pull out sofas).It's also located next to a Cabela's and it's an absolutely beautiful area with many outdoor activities available (for those not having surgery). I could go on. It's a really great place with a fantastic staff. What could have been a nightmare, has been an absolute breeze so far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r587937442-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>587937442</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>Great location great hotel</t>
+  </si>
+  <si>
+    <t>I stay at this hotel shortly after they opened and found the hotel to be quite a great place. It is easy to get to from the interstate and easy access to the bypass. The staff was friendly and very accommodating. A year later the service is just as good. The room was clean and the bed was comfortable. Very beautiful outdoor area as well. This has been just a stop over for us, but I plan to make it a vacation spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stay at this hotel shortly after they opened and found the hotel to be quite a great place. It is easy to get to from the interstate and easy access to the bypass. The staff was friendly and very accommodating. A year later the service is just as good. The room was clean and the bed was comfortable. Very beautiful outdoor area as well. This has been just a stop over for us, but I plan to make it a vacation spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r583504825-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>583504825</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Surprised</t>
+  </si>
+  <si>
+    <t>We never stayed in a TownePlace property. It’s a Marriott property. You know it will be clean and comfortable. This was, however more than we expected with a kitchen and the available food preparation. It won’t be our last time for sure!</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r576924216-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>576924216</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>Nice option for Lone Tree</t>
+  </si>
+  <si>
+    <t>Really enjoyed this property.  The staff are super friendly and the rooms are very well appointed and new.  If you have to be in the urban sprawl of south Denver - this property is a good place to base out of.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r576536914-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>576536914</t>
+  </si>
+  <si>
+    <t>04/29/2018</t>
+  </si>
+  <si>
+    <t>Nice Hotel</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. I think it's rather new, and it seems like it. We got the Studio Suite with a nice kitchenette. Bed was very comfortable. They made great use of a small space by providing a table in kitchenette that you can slide under a desk to hide, or roll out and move around the room. Closet is also set up nicely to make best use of a small space with a movable drawer and racks and bars for hanging long and short clothing. End tables on each side of bed also have 3 drawers for clothes.  
+Kitchen is set up nicely, with a decent set of pans and dishes, nice microwave and refrigerator. They also provide a nice removable tray on the footstool, as well as a TV tray that slides up to couch. I rarely find couches that are comfortable in hotel rooms, but the couch was very comfortable w/good support. TV is large and of good quality and on a wall mount for easily moving around for viewing from couch seating area or bed. Free HBO is provided, as well as HBO GO to watch on demand shows. Good TV guide, which is also a rarity in hotels. Only complaints would be no information in room or on hotel TV channel as to location of ice or laundry rooms. Also, bathroom is kind of small with very limited counter space. The positives outweigh...This is a very nice hotel. I think it's rather new, and it seems like it. We got the Studio Suite with a nice kitchenette. Bed was very comfortable. They made great use of a small space by providing a table in kitchenette that you can slide under a desk to hide, or roll out and move around the room. Closet is also set up nicely to make best use of a small space with a movable drawer and racks and bars for hanging long and short clothing. End tables on each side of bed also have 3 drawers for clothes.  Kitchen is set up nicely, with a decent set of pans and dishes, nice microwave and refrigerator. They also provide a nice removable tray on the footstool, as well as a TV tray that slides up to couch. I rarely find couches that are comfortable in hotel rooms, but the couch was very comfortable w/good support. TV is large and of good quality and on a wall mount for easily moving around for viewing from couch seating area or bed. Free HBO is provided, as well as HBO GO to watch on demand shows. Good TV guide, which is also a rarity in hotels. Only complaints would be no information in room or on hotel TV channel as to location of ice or laundry rooms. Also, bathroom is kind of small with very limited counter space. The positives outweigh this negative, though. They do have 2 laundry rooms with decent equipment, nice exercise room and pool.  There is also a very nice fire pit outside with ample seating areas, as well as 2 grills for guests' use.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. I think it's rather new, and it seems like it. We got the Studio Suite with a nice kitchenette. Bed was very comfortable. They made great use of a small space by providing a table in kitchenette that you can slide under a desk to hide, or roll out and move around the room. Closet is also set up nicely to make best use of a small space with a movable drawer and racks and bars for hanging long and short clothing. End tables on each side of bed also have 3 drawers for clothes.  
+Kitchen is set up nicely, with a decent set of pans and dishes, nice microwave and refrigerator. They also provide a nice removable tray on the footstool, as well as a TV tray that slides up to couch. I rarely find couches that are comfortable in hotel rooms, but the couch was very comfortable w/good support. TV is large and of good quality and on a wall mount for easily moving around for viewing from couch seating area or bed. Free HBO is provided, as well as HBO GO to watch on demand shows. Good TV guide, which is also a rarity in hotels. Only complaints would be no information in room or on hotel TV channel as to location of ice or laundry rooms. Also, bathroom is kind of small with very limited counter space. The positives outweigh...This is a very nice hotel. I think it's rather new, and it seems like it. We got the Studio Suite with a nice kitchenette. Bed was very comfortable. They made great use of a small space by providing a table in kitchenette that you can slide under a desk to hide, or roll out and move around the room. Closet is also set up nicely to make best use of a small space with a movable drawer and racks and bars for hanging long and short clothing. End tables on each side of bed also have 3 drawers for clothes.  Kitchen is set up nicely, with a decent set of pans and dishes, nice microwave and refrigerator. They also provide a nice removable tray on the footstool, as well as a TV tray that slides up to couch. I rarely find couches that are comfortable in hotel rooms, but the couch was very comfortable w/good support. TV is large and of good quality and on a wall mount for easily moving around for viewing from couch seating area or bed. Free HBO is provided, as well as HBO GO to watch on demand shows. Good TV guide, which is also a rarity in hotels. Only complaints would be no information in room or on hotel TV channel as to location of ice or laundry rooms. Also, bathroom is kind of small with very limited counter space. The positives outweigh this negative, though. They do have 2 laundry rooms with decent equipment, nice exercise room and pool.  There is also a very nice fire pit outside with ample seating areas, as well as 2 grills for guests' use.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r572894818-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>572894818</t>
+  </si>
+  <si>
+    <t>04/12/2018</t>
+  </si>
+  <si>
+    <t>Love this place.</t>
+  </si>
+  <si>
+    <t>I have stayed at the TownePlace Suites a few times over the last few months. Every time I'm greeted with a warm smile. All the staff that I run into is super friendly. I would recommend this place to everyone. It would a great place for a long extended stay. Everything is super clean! Thanks. I will be back! .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r568052413-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>568052413</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not for Platinum </t>
+  </si>
+  <si>
+    <t>I checked into this hotel and after switching rooms twice, within 20 minutes, I checked out.
+I stay with Marriott 4 Night’s a week and if there isn’t a full service available, I look for the newest Marriott property and make considerations based on reviews.
+At check in, there were no upgrades avail for platinum guests. Front desk was helpful but gave me a room on the second floor, and then said to call down if I didn’t like it...why not just give me the room you think I’d like in the first place? Anyway, had to go upstairs, call down, get keys, switch rooms, and then ended up leaving anyway. 
+Upon departure the front desk manager asked if they needed to service my room. I hadn’t unpacked or anything but I as a guest couldn’t believe they would ask this. No matter how long a guest is checked into a room, housekeeping should AT LEAST check it!
+This property felt like I was sleeping within cinderblocks and is very poorly constructed. The rooms are scented with so much cleaning solution and it smelled like they were masking the room vs cleaning it. 
+The walls are paper thin. I never complain about this, and within the two rooms I had they both sounded like I was in the hallway (and it was the middle of the day, when the hotel was empty).
+There are a lot of nicer Marriott properties...I checked into this hotel and after switching rooms twice, within 20 minutes, I checked out.I stay with Marriott 4 Night’s a week and if there isn’t a full service available, I look for the newest Marriott property and make considerations based on reviews.At check in, there were no upgrades avail for platinum guests. Front desk was helpful but gave me a room on the second floor, and then said to call down if I didn’t like it...why not just give me the room you think I’d like in the first place? Anyway, had to go upstairs, call down, get keys, switch rooms, and then ended up leaving anyway. Upon departure the front desk manager asked if they needed to service my room. I hadn’t unpacked or anything but I as a guest couldn’t believe they would ask this. No matter how long a guest is checked into a room, housekeeping should AT LEAST check it!This property felt like I was sleeping within cinderblocks and is very poorly constructed. The rooms are scented with so much cleaning solution and it smelled like they were masking the room vs cleaning it. The walls are paper thin. I never complain about this, and within the two rooms I had they both sounded like I was in the hallway (and it was the middle of the day, when the hotel was empty).There are a lot of nicer Marriott properties in the immediate area. Sorry TownePlace, I was quite disappointed with the quality of this property and thoroughly grossed out that it was even a question on whether or not my room needed to be serviced after I left.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I checked into this hotel and after switching rooms twice, within 20 minutes, I checked out.
+I stay with Marriott 4 Night’s a week and if there isn’t a full service available, I look for the newest Marriott property and make considerations based on reviews.
+At check in, there were no upgrades avail for platinum guests. Front desk was helpful but gave me a room on the second floor, and then said to call down if I didn’t like it...why not just give me the room you think I’d like in the first place? Anyway, had to go upstairs, call down, get keys, switch rooms, and then ended up leaving anyway. 
+Upon departure the front desk manager asked if they needed to service my room. I hadn’t unpacked or anything but I as a guest couldn’t believe they would ask this. No matter how long a guest is checked into a room, housekeeping should AT LEAST check it!
+This property felt like I was sleeping within cinderblocks and is very poorly constructed. The rooms are scented with so much cleaning solution and it smelled like they were masking the room vs cleaning it. 
+The walls are paper thin. I never complain about this, and within the two rooms I had they both sounded like I was in the hallway (and it was the middle of the day, when the hotel was empty).
+There are a lot of nicer Marriott properties...I checked into this hotel and after switching rooms twice, within 20 minutes, I checked out.I stay with Marriott 4 Night’s a week and if there isn’t a full service available, I look for the newest Marriott property and make considerations based on reviews.At check in, there were no upgrades avail for platinum guests. Front desk was helpful but gave me a room on the second floor, and then said to call down if I didn’t like it...why not just give me the room you think I’d like in the first place? Anyway, had to go upstairs, call down, get keys, switch rooms, and then ended up leaving anyway. Upon departure the front desk manager asked if they needed to service my room. I hadn’t unpacked or anything but I as a guest couldn’t believe they would ask this. No matter how long a guest is checked into a room, housekeeping should AT LEAST check it!This property felt like I was sleeping within cinderblocks and is very poorly constructed. The rooms are scented with so much cleaning solution and it smelled like they were masking the room vs cleaning it. The walls are paper thin. I never complain about this, and within the two rooms I had they both sounded like I was in the hallway (and it was the middle of the day, when the hotel was empty).There are a lot of nicer Marriott properties in the immediate area. Sorry TownePlace, I was quite disappointed with the quality of this property and thoroughly grossed out that it was even a question on whether or not my room needed to be serviced after I left.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r557419701-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>557419701</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Great doesn't begin to describe the Staff</t>
+  </si>
+  <si>
+    <t>We needed a place to stay while work was being done on our house. This hotel offered a nice 2 bedroom option that came with a kitchen and living room and allowed use to have our pets. We felt welcome from the moment we walked in the door. The staff continually went out of their way to make sure that our stay was nice and uneventful. Both of my soon really liked the front desk staff and liked seeing them each morning and evening. they gave the little toys and it made their days. it was little things like this that puts this hotel over the top when it came to service. the staff made this stressful time a bit better and were hands down the best staff that i have ever dealt with when staying at a hotel or resort. The hotel was very clean and quite. they have nice amenities that you normal dont see like 2 quality outdoor grills and a nice large gas fire pit. David from the front desk is the bestMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>We needed a place to stay while work was being done on our house. This hotel offered a nice 2 bedroom option that came with a kitchen and living room and allowed use to have our pets. We felt welcome from the moment we walked in the door. The staff continually went out of their way to make sure that our stay was nice and uneventful. Both of my soon really liked the front desk staff and liked seeing them each morning and evening. they gave the little toys and it made their days. it was little things like this that puts this hotel over the top when it came to service. the staff made this stressful time a bit better and were hands down the best staff that i have ever dealt with when staying at a hotel or resort. The hotel was very clean and quite. they have nice amenities that you normal dont see like 2 quality outdoor grills and a nice large gas fire pit. David from the front desk is the bestMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r552435756-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>552435756</t>
+  </si>
+  <si>
+    <t>01/08/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice, not great </t>
+  </si>
+  <si>
+    <t>So this is a very nice hotel in a really good location.  However, it has very thin walls and you hear way more than you want to in the halls and the rooms next to you.  The food was standard hotel fair and was good enough.  The customer service was very good.  I would have given it five stars except for a few little bumps.  It is newer and you can watch Netflix on the TVs so it is modern.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r549003412-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>549003412</t>
+  </si>
+  <si>
+    <t>12/24/2017</t>
+  </si>
+  <si>
+    <t>VPO</t>
+  </si>
+  <si>
+    <t>This is one of the newer hotels in the Lone Tree area.  I’ve stayed there over 25 nights in late October thru December.  It is clean, well kept, and conveniently located off I-25.  The employees have been well-trained in hospitality and customer service.  I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r548390968-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>548390968</t>
+  </si>
+  <si>
+    <t>12/21/2017</t>
+  </si>
+  <si>
+    <t>Clean and comfortable.</t>
+  </si>
+  <si>
+    <t>Stayed at the TownPlace for 2 night while in Lone Tree on Business.  Our room was clean, nicely laid out and comfortable.  Staff was nice and helpful.  If you are a runner or walker, there is a fun trail right next to the hotel.  That was a highlight.  There is a small gym with weights.  Breakfast was standard for this type of hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r538146871-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>538146871</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Clean, Comfortable and Convenient!</t>
+  </si>
+  <si>
+    <t>I stayed at TownPlace Suites for a little over a week for a medical procedure I was having nearby in Lone Tree. Because of this, my comfort and ability to rest was important. I was not let down in the least. The bed was soft and clean, linens were always stocked and the layout of the room allowed me to relax during my long stay. The staff was also very helpful. Alyssa greeted me when I arrived and was helpful to suggest nearby places to eat. She also booked me a room on the top floor because she knew I would need my rest. A few days later Amanda brought toothpaste and toiletries to my room right after I called to ask for some. The breakfast was also very good and helped me save money since I was eating out so much. The Smart TVs were a great touch and I was able to use the desk to complete school work while I stayed. Also, housekeeping worked all day long and was able to clean my room even if I didn't step out until the early evening. I am glad I got to stay here! Great place!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I stayed at TownPlace Suites for a little over a week for a medical procedure I was having nearby in Lone Tree. Because of this, my comfort and ability to rest was important. I was not let down in the least. The bed was soft and clean, linens were always stocked and the layout of the room allowed me to relax during my long stay. The staff was also very helpful. Alyssa greeted me when I arrived and was helpful to suggest nearby places to eat. She also booked me a room on the top floor because she knew I would need my rest. A few days later Amanda brought toothpaste and toiletries to my room right after I called to ask for some. The breakfast was also very good and helped me save money since I was eating out so much. The Smart TVs were a great touch and I was able to use the desk to complete school work while I stayed. Also, housekeeping worked all day long and was able to clean my room even if I didn't step out until the early evening. I am glad I got to stay here! Great place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r537403139-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>537403139</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Fantastic hotel!</t>
+  </si>
+  <si>
+    <t>We just returned from spending 5 days at this Lone Tree TownPlace. Although we had just attended a conference at a famous resort for 4 days we weren’t disappointed. In fact, the cleanliness far exceeded what we saw at the resort! The staff was also extremely attentive and ready to make our stay as pleasant as possible. There was convenient shopping, beautiful trails, restaurants, in a safe neighborhood. We found it to be in a central location to visit sites we had planned as well as those suggested by the staff. We wholeheartedly recommend this facility!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r535759579-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>535759579</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>Hotel is in a convenient location, close to expressway. Front desk staff was very friendly.  Room was  very clean and had nice kitchenette.Bed was comfortable and there was a hot breakfast buffet in the morning.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r522863425-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>522863425</t>
+  </si>
+  <si>
+    <t>09/09/2017</t>
+  </si>
+  <si>
+    <t>Kindness Displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not only is this hotel clean and very comfortable their staff is kind and generous. I was able to witness extraordinary kindness displayed by Alyssa whom was working at the front desk. She was extremely professional and went above and beyond in this situation. Alyssa has won my business  for the his property! Thank you for showing your kindness! </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r520823014-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>520823014</t>
+  </si>
+  <si>
+    <t>09/03/2017</t>
+  </si>
+  <si>
+    <t>Great service - thin walls</t>
+  </si>
+  <si>
+    <t>This newer property was great all the way around except you can pretty much hear everything in your neighbors' room. I could hear the guy next door shaving!The staff was friendly and helpful and the housekeeping service very efficient. Free breakfast and wifi as well as proximity to 25N and S make it a great location.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r517136722-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>517136722</t>
+  </si>
+  <si>
+    <t>08/24/2017</t>
+  </si>
+  <si>
+    <t>Nice Stay, Clean and Convenient Location</t>
+  </si>
+  <si>
+    <t>Our family of 3 stayed in a 2 bedroom suite.  Everything was really clean and the kitchen was well stocked.  I would recommend stocking the kitchen with a pizza pan and cutter : )  We were in room 338.  It was far from the elevator which was nice so we didn't hear a lot of noise from people getting on and off the elevator.  We had breakfast here everyday which suited us nicely.  Assorted cereals, oatmeal, eggs, bagels, fruit, donuts, coffee, juice, sausage or bacon, etc.......  They also had a grill outside.  If we had stayed longer we would have utilized it.  Pool was nice for our son, a bit small, but it did the trick.  While visiting we went to Colorado Springs, Keenesburg and Georgetown.  They are all about 1 hour drive from this hotel so location was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Our family of 3 stayed in a 2 bedroom suite.  Everything was really clean and the kitchen was well stocked.  I would recommend stocking the kitchen with a pizza pan and cutter : )  We were in room 338.  It was far from the elevator which was nice so we didn't hear a lot of noise from people getting on and off the elevator.  We had breakfast here everyday which suited us nicely.  Assorted cereals, oatmeal, eggs, bagels, fruit, donuts, coffee, juice, sausage or bacon, etc.......  They also had a grill outside.  If we had stayed longer we would have utilized it.  Pool was nice for our son, a bit small, but it did the trick.  While visiting we went to Colorado Springs, Keenesburg and Georgetown.  They are all about 1 hour drive from this hotel so location was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r507510686-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>507510686</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>Great staff. Kim, Phillip, Jan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was quite understaffed but still took care of eleven of our family staying at this property. Rooms were nice as was the outdoor area. Places to bbq and hang out really help when families come together. </t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r506637583-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>506637583</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Phenomenal customer service</t>
+  </si>
+  <si>
+    <t>I just spoke with the most wonderful young lady, Elisa at the front desk at this hotel.  She was professional, empathetic and compassionate.  She went above and beyond to help me with a problem and after trying her best, she asked her assistant manager (Amanda) to assist.  Amanda was awesome, going beyond what was required of her as a leader and assisted me with such a positive attitude never making me feel as if I were a burden or nuisance.  I am looking forward to my stay there because of these 2 wonderful people.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r504785932-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>504785932</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Great Location and Hotel</t>
+  </si>
+  <si>
+    <t>This hotel is easy access off of the bypass.  It is also convenient to many restaurants. The hotel itself is beautiful.  Great place to relax outdoors next to the fire pit. The staff was very friendly. This was just a stop over for us, but we will make it a destination visit in the future. They has a nice fitness center too. The room was spacious, and the bed was comfortable. Highly recommend</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r497284800-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>497284800</t>
+  </si>
+  <si>
+    <t>06/29/2017</t>
+  </si>
+  <si>
+    <t>Nice new hotel</t>
+  </si>
+  <si>
+    <t>This was a really nice hotel, brand new the room is really spacious and clean smells new, my room had two separate rooms which was really nice. They provide utensils for having a barbecue perfect with this summer weather plus the pool is great too. Really recommend this hotel definitely coming back when ever visiting!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2017</t>
+  </si>
+  <si>
+    <t>This was a really nice hotel, brand new the room is really spacious and clean smells new, my room had two separate rooms which was really nice. They provide utensils for having a barbecue perfect with this summer weather plus the pool is great too. Really recommend this hotel definitely coming back when ever visiting!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r496709359-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>496709359</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>*****WOW***** NEW</t>
+  </si>
+  <si>
+    <t>After a very bad experience at another hotel, needing to find a room for the night, and booked online, but accidentally booked the wrong night, the general manager was notified and agreed to honor that price for tonight, Ben for the WIN! They just opened today and they are booked, the hotel is quiet, well thought out and beautiful, I will be staying here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2017</t>
+  </si>
+  <si>
+    <t>After a very bad experience at another hotel, needing to find a room for the night, and booked online, but accidentally booked the wrong night, the general manager was notified and agreed to honor that price for tonight, Ben for the WIN! They just opened today and they are booked, the hotel is quiet, well thought out and beautiful, I will be staying here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r496707919-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>496707919</t>
+  </si>
+  <si>
+    <t>Lovely new hotel!!!</t>
+  </si>
+  <si>
+    <t>1st night in a beautiful new hotel!!!  All desk people are so friendly.....hotel beautiful.....no restaurants walking distance yet......but sure to be soon!!!  Next to Cabellas.  They offered a shuttle within 5 miles which was WONDERFUL and we made use of!!!  Very welcoming and accommodating and helpful!!!!!  Would assuredly stay here again!!!  GM was a GEM of a guy and also our chauffeur!!!  Many THANKS for a great stay!!!  Looking forward to breakfast in the morning!!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>1st night in a beautiful new hotel!!!  All desk people are so friendly.....hotel beautiful.....no restaurants walking distance yet......but sure to be soon!!!  Next to Cabellas.  They offered a shuttle within 5 miles which was WONDERFUL and we made use of!!!  Very welcoming and accommodating and helpful!!!!!  Would assuredly stay here again!!!  GM was a GEM of a guy and also our chauffeur!!!  Many THANKS for a great stay!!!  Looking forward to breakfast in the morning!!!!!More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1032,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1064,1541 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>63</v>
+      </c>
+      <c r="X4" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>80</v>
+      </c>
+      <c r="K6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>4</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>117</v>
+      </c>
+      <c r="K12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L12" t="s">
+        <v>119</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>101</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K13" t="s">
+        <v>124</v>
+      </c>
+      <c r="L13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>120</v>
+      </c>
+      <c r="O13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>132</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K15" t="s">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s">
+        <v>138</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>140</v>
+      </c>
+      <c r="J16" t="s">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s">
+        <v>142</v>
+      </c>
+      <c r="L16" t="s">
+        <v>143</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>144</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>62</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>101</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>156</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
+      <c r="O19" t="s">
+        <v>62</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>164</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K20" t="s">
+        <v>166</v>
+      </c>
+      <c r="L20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" t="s">
+        <v>62</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>62</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" t="s">
+        <v>176</v>
+      </c>
+      <c r="K22" t="s">
+        <v>177</v>
+      </c>
+      <c r="L22" t="s">
+        <v>178</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>180</v>
+      </c>
+      <c r="J23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23" t="s">
+        <v>183</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>184</v>
+      </c>
+      <c r="O23" t="s">
+        <v>62</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>185</v>
+      </c>
+      <c r="X23" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>184</v>
+      </c>
+      <c r="O24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>193</v>
+      </c>
+      <c r="X24" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>197</v>
+      </c>
+      <c r="J25" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>184</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>193</v>
+      </c>
+      <c r="X25" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Denver/Denver_shard_273.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_273.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
   <si>
     <t>STR#</t>
   </si>
@@ -150,18 +150,108 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/05/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r611712129-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>656236</t>
+  </si>
+  <si>
+    <t>12277175</t>
+  </si>
+  <si>
+    <t>611712129</t>
+  </si>
+  <si>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>AMAZING! GREATEST STAFF EVER!</t>
+  </si>
+  <si>
+    <t>I have honestly never written a review WHILE I’ve been staying at the hotel, but the staff has gone out of their way to be hospitable and helpful to every guest! It’s clean, roomy, and the beds/pillows/sheets are comfy. If you need a full refrigerator for anything, (my need was medications and it was perfect!) while not staying in a low-end extended stay hotel, this is it! Also, just FYI- this is a perfect place for anyone needing to go to CCRM...While I’m here doing a stressful thing, I thankfully have two nights left of goodness!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Peter S, General Manager at TownePlace Suites Denver South/Lone Tree, responded to this reviewResponded 2 days ago</t>
+  </si>
+  <si>
+    <t>Responded 2 days ago</t>
+  </si>
+  <si>
+    <t>I have honestly never written a review WHILE I’ve been staying at the hotel, but the staff has gone out of their way to be hospitable and helpful to every guest! It’s clean, roomy, and the beds/pillows/sheets are comfy. If you need a full refrigerator for anything, (my need was medications and it was perfect!) while not staying in a low-end extended stay hotel, this is it! Also, just FYI- this is a perfect place for anyone needing to go to CCRM...While I’m here doing a stressful thing, I thankfully have two nights left of goodness!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r605109662-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>605109662</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>Lone Tree vacation</t>
+  </si>
+  <si>
+    <t>Very clean and quiet. "Free" breakfast not the greatest, typical "pre-fab" eggs, minimal fresh fruit and healthy items to choose from. Good location, only indoor pool/no outdoor pool. Would stay there again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r600582365-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>600582365</t>
+  </si>
+  <si>
+    <t>07/28/2018</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This was an amazing deal. The room was so great. The most comfortable bed and pillows.  We enjoyed relaxing on the patio. I wish we had found this place earlier in our trip, we would have stayed several nights instead of just the one night. Highly recommend this place. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r593788397-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>593788397</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Excellent property although not too sure about the pet policy!</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel for 3 nights and loved it. The rooms are one of the best we have stayed in USA so far (we have been travelling for 4 weeks). They are extremely well appointed with full size fridge, dishwasher, microwave and cook top. The bed and pillows were amazing. Plenty of charging options for phones, laptops etc.We used the guest laundry, new machines and quite cheap to use.The hotel stored our luggage for a few days while we headed to Chicago which saved us taking unwanted luggage with us for a short trip.Breakfast was adequate. We ate at the restaurant across the carpark 'Sierra' twice and really enjoyed it.The only let down was being woken by a barking dog at 6am which continued until 8am. This dog had obviously been left unattended, when I mentioned it to reception the gentleman advised me that he knew exactly which dog it was and would provide feedback to the owner. Also there was a very bad 'doggy smell' coming from a room a few doors down - possibly the same dog.I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>We recently stayed at this hotel for 3 nights and loved it. The rooms are one of the best we have stayed in USA so far (we have been travelling for 4 weeks). They are extremely well appointed with full size fridge, dishwasher, microwave and cook top. The bed and pillows were amazing. Plenty of charging options for phones, laptops etc.We used the guest laundry, new machines and quite cheap to use.The hotel stored our luggage for a few days while we headed to Chicago which saved us taking unwanted luggage with us for a short trip.Breakfast was adequate. We ate at the restaurant across the carpark 'Sierra' twice and really enjoyed it.The only let down was being woken by a barking dog at 6am which continued until 8am. This dog had obviously been left unattended, when I mentioned it to reception the gentleman advised me that he knew exactly which dog it was and would provide feedback to the owner. Also there was a very bad 'doggy smell' coming from a room a few doors down - possibly the same dog.I would definitely stay here again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r591291477-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
   </si>
   <si>
-    <t>656236</t>
-  </si>
-  <si>
-    <t>12277175</t>
-  </si>
-  <si>
     <t>591291477</t>
   </si>
   <si>
@@ -174,16 +264,10 @@
     <t>I was surprised at how wonderful this Marriott is. I was in lone tree for some appointments, and i stayed the night, and the rooms were bright, clean, and airy. I will definitely stay here again! Staff was friendly and helpful. Walls are a little thin and I heard a dog barking since it is pet friendly, but all was ok.MoreShow less</t>
   </si>
   <si>
-    <t>June 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Beth E, Director of Sales at TownePlace Suites Denver South/Lone Tree, responded to this reviewResponded 4 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 4 weeks ago</t>
+    <t>Beth E, Director of Sales at TownePlace Suites Denver South/Lone Tree, responded to this reviewResponded July 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2018</t>
   </si>
   <si>
     <t>I was surprised at how wonderful this Marriott is. I was in lone tree for some appointments, and i stayed the night, and the rooms were bright, clean, and airy. I will definitely stay here again! Staff was friendly and helpful. Walls are a little thin and I heard a dog barking since it is pet friendly, but all was ok.More</t>
@@ -207,9 +291,6 @@
 We didn't get to check out the breakfast yet, but they have a "room service" service...We came down yesterday from four hours away for a surgery for my young adult daughter ... she had her tonsils today. Because we live and have to travel through a more remote area, they advised we have a day of rest and not try to drive home until Wednesday. That's 3 nights in a hotel after a surgery. We NEEDED someplace comfortable enough to be cooped up in, AND with more than just a mini fridge for all the juice, ice cream, slushies, etc. We like the beds at Marriott properties so we chose TownPlace. So far it has been stellar. The front desk staff apologized for checking being slightly slow due to a frozen computer, but I've had waaaay slower for no reason other than people being slow. They offer a glass of fresh water when you arrive. We had a LOT of luggage and all the carts were in use, so they found one and brought it out to us quickly. They have a small section of snacks and beverages, including ice cream, so we didn't have to find a grocery store right away to get some for after the surgery. When we got to the room, our toilet was sluggish, so we asked for a plunger and it was at our door in under 2 minutes. This staff really hustles. We didn't get to check out the breakfast yet, but they have a "room service" service available. A national business called OrderInn delivers right to your door, and there is a menu in the room (good for us because we don't want to go out). There is a great selection of restaurants in the area if you do want to eat out (we went to Maggiano's last night after we arrived). When we asked about places that might deliver to the hotel, in addition to OrderInn, the front desk clerk also recommended Uber Eats for delivery ... we don't have anything like that where we live so we would not have thought of it. The room also has a kitchenette for preparing food (or reheating leftovers). Full size fridge and freezer (which we needed), dishwasher, 2 burner stove top, coffee maker, dishes, paper towels, etc. We brought a kettle and a small bullet blender to easily make things for my daughter while she recuperates. We had to leave early for the surgery center, so I left our dishes in the sink to take care of later. When we got back, not only was the room completely made up, but they had WASHED OUR DISHES. Other features ... large table with 4 chairs for eating/working space; lots of outlets in good locations (not behind furniture) so all 3 of use can charge our multiple devices; a large sitting chair with ottoman (we have a studio room ... I think some of the suites have pull out sofas).It's also located next to a Cabela's and it's an absolutely beautiful area with many outdoor activities available (for those not having surgery). I could go on. It's a really great place with a fantastic staff. What could have been a nightmare, has been an absolute breeze so far.MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Beth E, Director of Sales at TownePlace Suites Denver South/Lone Tree, responded to this reviewResponded June 26, 2018</t>
   </si>
   <si>
@@ -240,6 +321,45 @@
     <t>I stay at this hotel shortly after they opened and found the hotel to be quite a great place. It is easy to get to from the interstate and easy access to the bypass. The staff was friendly and very accommodating. A year later the service is just as good. The room was clean and the bed was comfortable. Very beautiful outdoor area as well. This has been just a stop over for us, but I plan to make it a vacation spot.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r584856970-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>584856970</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Good and Bad</t>
+  </si>
+  <si>
+    <t>The good:*   Location relative to Tech Center, I-25, south metro area*   Newer facility*   Front desk staffThe bad:*  Room cleaning needs to be supervised/audited.  We found areas in the bathroom which had not been wiped clean and an area of the rug which had not been vacuumed.  We moved to a 2nd room and found it to be clean.*  We have stayed in TownePlace Suites before and have become used to a                     pets stay free" policy.  This was NOT the case at this location.  We were charged a $50 flat fee.*  This facility charges a P.I.F. tax - which you will discover at checkout; not before.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>The good:*   Location relative to Tech Center, I-25, south metro area*   Newer facility*   Front desk staffThe bad:*  Room cleaning needs to be supervised/audited.  We found areas in the bathroom which had not been wiped clean and an area of the rug which had not been vacuumed.  We moved to a 2nd room and found it to be clean.*  We have stayed in TownePlace Suites before and have become used to a                     pets stay free" policy.  This was NOT the case at this location.  We were charged a $50 flat fee.*  This facility charges a P.I.F. tax - which you will discover at checkout; not before.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r584312969-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>584312969</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>We had a 10 night stay at this hotel and the staff was so accommodating. From the moment I walked in the door they where friendly and willing to help. The property is well maintained and clean. The lobby and fitness area is also clean. The room were clean and maintained. Upon checking the rooms had a lemongrass smell which was nice.  The bed was comfortable and the king suite had plenty of room to spread out.  The only thing I had an issue with was the Wi-Fi, it didn't want to work in the room very well.  The breakfast was okay not alot of options but it was nice being able to have breakfast in the morning.  I will be staying here again if I am in the area just due to the stay and the way the property is maintained.  MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a 10 night stay at this hotel and the staff was so accommodating. From the moment I walked in the door they where friendly and willing to help. The property is well maintained and clean. The lobby and fitness area is also clean. The room were clean and maintained. Upon checking the rooms had a lemongrass smell which was nice.  The bed was comfortable and the king suite had plenty of room to spread out.  The only thing I had an issue with was the Wi-Fi, it didn't want to work in the room very well.  The breakfast was okay not alot of options but it was nice being able to have breakfast in the morning.  I will be staying here again if I am in the area just due to the stay and the way the property is maintained.  More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r583504825-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -253,9 +373,6 @@
   </si>
   <si>
     <t>We never stayed in a TownePlace property. It’s a Marriott property. You know it will be clean and comfortable. This was, however more than we expected with a kitchen and the available food preparation. It won’t be our last time for sure!</t>
-  </si>
-  <si>
-    <t>May 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r576924216-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
@@ -294,6 +411,39 @@
   <si>
     <t>This is a very nice hotel. I think it's rather new, and it seems like it. We got the Studio Suite with a nice kitchenette. Bed was very comfortable. They made great use of a small space by providing a table in kitchenette that you can slide under a desk to hide, or roll out and move around the room. Closet is also set up nicely to make best use of a small space with a movable drawer and racks and bars for hanging long and short clothing. End tables on each side of bed also have 3 drawers for clothes.  
 Kitchen is set up nicely, with a decent set of pans and dishes, nice microwave and refrigerator. They also provide a nice removable tray on the footstool, as well as a TV tray that slides up to couch. I rarely find couches that are comfortable in hotel rooms, but the couch was very comfortable w/good support. TV is large and of good quality and on a wall mount for easily moving around for viewing from couch seating area or bed. Free HBO is provided, as well as HBO GO to watch on demand shows. Good TV guide, which is also a rarity in hotels. Only complaints would be no information in room or on hotel TV channel as to location of ice or laundry rooms. Also, bathroom is kind of small with very limited counter space. The positives outweigh...This is a very nice hotel. I think it's rather new, and it seems like it. We got the Studio Suite with a nice kitchenette. Bed was very comfortable. They made great use of a small space by providing a table in kitchenette that you can slide under a desk to hide, or roll out and move around the room. Closet is also set up nicely to make best use of a small space with a movable drawer and racks and bars for hanging long and short clothing. End tables on each side of bed also have 3 drawers for clothes.  Kitchen is set up nicely, with a decent set of pans and dishes, nice microwave and refrigerator. They also provide a nice removable tray on the footstool, as well as a TV tray that slides up to couch. I rarely find couches that are comfortable in hotel rooms, but the couch was very comfortable w/good support. TV is large and of good quality and on a wall mount for easily moving around for viewing from couch seating area or bed. Free HBO is provided, as well as HBO GO to watch on demand shows. Good TV guide, which is also a rarity in hotels. Only complaints would be no information in room or on hotel TV channel as to location of ice or laundry rooms. Also, bathroom is kind of small with very limited counter space. The positives outweigh this negative, though. They do have 2 laundry rooms with decent equipment, nice exercise room and pool.  There is also a very nice fire pit outside with ample seating areas, as well as 2 grills for guests' use.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r574619925-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>574619925</t>
+  </si>
+  <si>
+    <t>04/20/2018</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>New hotel next to Cabela’s.  Received a warm welcoming greeting.  The breakfast was actually better than I would have expected.   The only complaint is that the shampoo was not replenished when the room was cleaned.  Gym is very very basic and couple use a few more machines.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r574077967-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>574077967</t>
+  </si>
+  <si>
+    <t>04/17/2018</t>
+  </si>
+  <si>
+    <t>Unbelievably great staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here for a few weeks for work. The staff are absolutely amazing on every level, in every department. I have never stayed in a place with staff as nice or as accommodating as they were. The negative though is the thin walls. You can here the people in the next room snoring which can be a bit annoying. I also couldn’t come to terms with the smoke detectors desire to flash every 8 seconds. It’s position over the bed continued to annoy me every night for the 5-6 weeks I was there. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r572894818-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
@@ -335,9 +485,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I checked into this hotel and after switching rooms twice, within 20 minutes, I checked out.
 I stay with Marriott 4 Night’s a week and if there isn’t a full service available, I look for the newest Marriott property and make considerations based on reviews.
 At check in, there were no upgrades avail for platinum guests. Front desk was helpful but gave me a room on the second floor, and then said to call down if I didn’t like it...why not just give me the room you think I’d like in the first place? Anyway, had to go upstairs, call down, get keys, switch rooms, and then ended up leaving anyway. 
@@ -368,6 +515,42 @@
     <t>We needed a place to stay while work was being done on our house. This hotel offered a nice 2 bedroom option that came with a kitchen and living room and allowed use to have our pets. We felt welcome from the moment we walked in the door. The staff continually went out of their way to make sure that our stay was nice and uneventful. Both of my soon really liked the front desk staff and liked seeing them each morning and evening. they gave the little toys and it made their days. it was little things like this that puts this hotel over the top when it came to service. the staff made this stressful time a bit better and were hands down the best staff that i have ever dealt with when staying at a hotel or resort. The hotel was very clean and quite. they have nice amenities that you normal dont see like 2 quality outdoor grills and a nice large gas fire pit. David from the front desk is the bestMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r556948034-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>556948034</t>
+  </si>
+  <si>
+    <t>01/28/2018</t>
+  </si>
+  <si>
+    <t>A great experience!</t>
+  </si>
+  <si>
+    <t>From the friendly staff, to the clean and comfy rooms, to the amazing breakfast, exercise room and swimming pool - our time at this hotel was great. When it snowed, the front desk had an ice scraper. When we need games for the grandkids, the front desk came through!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r553236616-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>553236616</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Great property!</t>
+  </si>
+  <si>
+    <t>I stayed here for my brother's wedding. It was brand new, I could still smell the fresh paint on the walls. Everything was super clean, nicely lit, the staff was awesome and friendly; eager to help. The room was fresh and clean, seemed to be set up well for a lengthier stay if required. I really liked the larger fridge that was offered.Breakfast selections were a little limited and some things seemed to be broken even though it was a new property.The "business center" computer did not work correctly, I was unable to print out my flight paperwork and ran VERY slow.Couple of rough edges but I'd stay there again without hesitation (for the right price).MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>I stayed here for my brother's wedding. It was brand new, I could still smell the fresh paint on the walls. Everything was super clean, nicely lit, the staff was awesome and friendly; eager to help. The room was fresh and clean, seemed to be set up well for a lengthier stay if required. I really liked the larger fridge that was offered.Breakfast selections were a little limited and some things seemed to be broken even though it was a new property.The "business center" computer did not work correctly, I was unable to print out my flight paperwork and ran VERY slow.Couple of rough edges but I'd stay there again without hesitation (for the right price).More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r552435756-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -416,27 +599,60 @@
     <t>Stayed at the TownPlace for 2 night while in Lone Tree on Business.  Our room was clean, nicely laid out and comfortable.  Staff was nice and helpful.  If you are a runner or walker, there is a fun trail right next to the hotel.  That was a highlight.  There is a small gym with weights.  Breakfast was standard for this type of hotel.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r538502873-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>538502873</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t>Front desk receptionist ELIZA is Fantastic!</t>
+  </si>
+  <si>
+    <t>If its with me the beginning of a great stay always begin with that great smile and personality of the first hotel staff who will greet you and so Eliza who works in the front desk not just did that but went above and beyond in helping us out with everything from settling in, printing, to pillows and I also heard from my kid her kindness, and for that we applaud you Eliza and thank you TownePlace South Lone Tree in Denver for doing an amazing job in hiring people like ElizaAside from that the property is new, excellent room and location is good- quite but almost close to everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>If its with me the beginning of a great stay always begin with that great smile and personality of the first hotel staff who will greet you and so Eliza who works in the front desk not just did that but went above and beyond in helping us out with everything from settling in, printing, to pillows and I also heard from my kid her kindness, and for that we applaud you Eliza and thank you TownePlace South Lone Tree in Denver for doing an amazing job in hiring people like ElizaAside from that the property is new, excellent room and location is good- quite but almost close to everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r538187052-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>538187052</t>
+  </si>
+  <si>
+    <t>11/03/2017</t>
+  </si>
+  <si>
+    <t>Property is new.. staff is excellent!</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the property from Oct 6th to the 15th on a combination of award points and paid nights.  As a new property, the rooms and amenities were fresh and well presented.  We stayed in two different configurations... a studio and two-bed suite.  Each came with cook top, frig and accessories to allow a family to live comfortably during an extended stay.What made the property outstanding was the service level and support of the staff.  From the Property GM, Amanda Mayock to front desk staff like Raelynn, the team really took care of our family and stepped up to meet our needs.  I would highly recommend this property if your travels have you in the area.  Note the shuttle bus service for local drop-offs!  Great for getting to any nearby medical facilities or Park Meadows shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>My family and I stayed at the property from Oct 6th to the 15th on a combination of award points and paid nights.  As a new property, the rooms and amenities were fresh and well presented.  We stayed in two different configurations... a studio and two-bed suite.  Each came with cook top, frig and accessories to allow a family to live comfortably during an extended stay.What made the property outstanding was the service level and support of the staff.  From the Property GM, Amanda Mayock to front desk staff like Raelynn, the team really took care of our family and stepped up to meet our needs.  I would highly recommend this property if your travels have you in the area.  Note the shuttle bus service for local drop-offs!  Great for getting to any nearby medical facilities or Park Meadows shopping.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r538146871-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
   </si>
   <si>
     <t>538146871</t>
   </si>
   <si>
-    <t>11/03/2017</t>
-  </si>
-  <si>
     <t>Clean, Comfortable and Convenient!</t>
   </si>
   <si>
     <t>I stayed at TownPlace Suites for a little over a week for a medical procedure I was having nearby in Lone Tree. Because of this, my comfort and ability to rest was important. I was not let down in the least. The bed was soft and clean, linens were always stocked and the layout of the room allowed me to relax during my long stay. The staff was also very helpful. Alyssa greeted me when I arrived and was helpful to suggest nearby places to eat. She also booked me a room on the top floor because she knew I would need my rest. A few days later Amanda brought toothpaste and toiletries to my room right after I called to ask for some. The breakfast was also very good and helped me save money since I was eating out so much. The Smart TVs were a great touch and I was able to use the desk to complete school work while I stayed. Also, housekeeping worked all day long and was able to clean my room even if I didn't step out until the early evening. I am glad I got to stay here! Great place!MoreShow less</t>
   </si>
   <si>
-    <t>October 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>I stayed at TownPlace Suites for a little over a week for a medical procedure I was having nearby in Lone Tree. Because of this, my comfort and ability to rest was important. I was not let down in the least. The bed was soft and clean, linens were always stocked and the layout of the room allowed me to relax during my long stay. The staff was also very helpful. Alyssa greeted me when I arrived and was helpful to suggest nearby places to eat. She also booked me a room on the top floor because she knew I would need my rest. A few days later Amanda brought toothpaste and toiletries to my room right after I called to ask for some. The breakfast was also very good and helped me save money since I was eating out so much. The Smart TVs were a great touch and I was able to use the desk to complete school work while I stayed. Also, housekeeping worked all day long and was able to clean my room even if I didn't step out until the early evening. I am glad I got to stay here! Great place!More</t>
   </si>
   <si>
@@ -473,6 +689,39 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r532974396-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>532974396</t>
+  </si>
+  <si>
+    <t>10/14/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great location!    Super nice hotel.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lots of great shopping and eating in walking distance from hotel!    Feels safe and inviting.   Service was great, hotel was clean and slept well!    If you want a great spot to say just outside of the hustle and bustle of Denver central - go here! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r528791300-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>528791300</t>
+  </si>
+  <si>
+    <t>10/01/2017</t>
+  </si>
+  <si>
+    <t>Outstanding Hotel!!</t>
+  </si>
+  <si>
+    <t>I’ve stayed here 35 days - this is an excellent hotel and excellent for an extended stat.  Immaculately kept, outstanding service from housekeeping.  Every time I walked by the front desk I was warmly and sincerely greeted!  Great amenities- beautifully kept work out room&amp; pool.  Great fire pit with seating and grill for guest use.  I HIGHLY recommend this hotel!!</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r522863425-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -488,9 +737,6 @@
     <t xml:space="preserve">Not only is this hotel clean and very comfortable their staff is kind and generous. I was able to witness extraordinary kindness displayed by Alyssa whom was working at the front desk. She was extremely professional and went above and beyond in this situation. Alyssa has won my business  for the his property! Thank you for showing your kindness! </t>
   </si>
   <si>
-    <t>September 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r520823014-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -521,12 +767,54 @@
     <t>Our family of 3 stayed in a 2 bedroom suite.  Everything was really clean and the kitchen was well stocked.  I would recommend stocking the kitchen with a pizza pan and cutter : )  We were in room 338.  It was far from the elevator which was nice so we didn't hear a lot of noise from people getting on and off the elevator.  We had breakfast here everyday which suited us nicely.  Assorted cereals, oatmeal, eggs, bagels, fruit, donuts, coffee, juice, sausage or bacon, etc.......  They also had a grill outside.  If we had stayed longer we would have utilized it.  Pool was nice for our son, a bit small, but it did the trick.  While visiting we went to Colorado Springs, Keenesburg and Georgetown.  They are all about 1 hour drive from this hotel so location was great.MoreShow less</t>
   </si>
   <si>
-    <t>August 2017</t>
-  </si>
-  <si>
     <t>Our family of 3 stayed in a 2 bedroom suite.  Everything was really clean and the kitchen was well stocked.  I would recommend stocking the kitchen with a pizza pan and cutter : )  We were in room 338.  It was far from the elevator which was nice so we didn't hear a lot of noise from people getting on and off the elevator.  We had breakfast here everyday which suited us nicely.  Assorted cereals, oatmeal, eggs, bagels, fruit, donuts, coffee, juice, sausage or bacon, etc.......  They also had a grill outside.  If we had stayed longer we would have utilized it.  Pool was nice for our son, a bit small, but it did the trick.  While visiting we went to Colorado Springs, Keenesburg and Georgetown.  They are all about 1 hour drive from this hotel so location was great.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r511028616-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>511028616</t>
+  </si>
+  <si>
+    <t>08/10/2017</t>
+  </si>
+  <si>
+    <t>Did not meet expectation</t>
+  </si>
+  <si>
+    <t>Prior to the opening of the hotel I had spoken with both the GM and Director of Sales to arrange a two month stay.  I was very specific in my request for a top floor, 2 bedroom suite due to the length of stay for my family and I.  Not only did they confirm this in May when I initially spoke to them, but I also had confirmed it 10 days before my arrival.
+Upon arrival, I was told the suite was not available on the top floor and that I would have to take a second floor suite and then move a day later.  While this might not seem like a big deal, it is when you are traveling with two toddlers and two vehicles full of belongings across country.  Even more disappointing was the fact that they left the front desk employees to deliver this news and the assistant GM, who was also in the building, never made any effort to come address the situation.  
+In addition to not having the correct room, the rate that was associated with the room was also not the rate that was confirmed when booking.  I would receive an email 3 days later with an apology and a fix for the rate issue, but no offer to compensate for the inconvenience or the inability to honor the confirmed reservation request.  
+Throughout the entire next week I expected at least someone from the...Prior to the opening of the hotel I had spoken with both the GM and Director of Sales to arrange a two month stay.  I was very specific in my request for a top floor, 2 bedroom suite due to the length of stay for my family and I.  Not only did they confirm this in May when I initially spoke to them, but I also had confirmed it 10 days before my arrival.Upon arrival, I was told the suite was not available on the top floor and that I would have to take a second floor suite and then move a day later.  While this might not seem like a big deal, it is when you are traveling with two toddlers and two vehicles full of belongings across country.  Even more disappointing was the fact that they left the front desk employees to deliver this news and the assistant GM, who was also in the building, never made any effort to come address the situation.  In addition to not having the correct room, the rate that was associated with the room was also not the rate that was confirmed when booking.  I would receive an email 3 days later with an apology and a fix for the rate issue, but no offer to compensate for the inconvenience or the inability to honor the confirmed reservation request.  Throughout the entire next week I expected at least someone from the hotel to personally make an effort to speak with us (given we were supposed to stay for two months).  However, since there was no additional effort made, we checked out after one week and found other accommodations.This was our first time giving Marriott a chance (I am a Hilton Diamond member), and after this experience, I'm so glad to be able to return to Hilton and get the service and experience that all travelers should expect.  This experience and service recovery effort simply was not good enough.  Thanks Marriott for reminding me why I'm a loyal Hilton member.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>Prior to the opening of the hotel I had spoken with both the GM and Director of Sales to arrange a two month stay.  I was very specific in my request for a top floor, 2 bedroom suite due to the length of stay for my family and I.  Not only did they confirm this in May when I initially spoke to them, but I also had confirmed it 10 days before my arrival.
+Upon arrival, I was told the suite was not available on the top floor and that I would have to take a second floor suite and then move a day later.  While this might not seem like a big deal, it is when you are traveling with two toddlers and two vehicles full of belongings across country.  Even more disappointing was the fact that they left the front desk employees to deliver this news and the assistant GM, who was also in the building, never made any effort to come address the situation.  
+In addition to not having the correct room, the rate that was associated with the room was also not the rate that was confirmed when booking.  I would receive an email 3 days later with an apology and a fix for the rate issue, but no offer to compensate for the inconvenience or the inability to honor the confirmed reservation request.  
+Throughout the entire next week I expected at least someone from the...Prior to the opening of the hotel I had spoken with both the GM and Director of Sales to arrange a two month stay.  I was very specific in my request for a top floor, 2 bedroom suite due to the length of stay for my family and I.  Not only did they confirm this in May when I initially spoke to them, but I also had confirmed it 10 days before my arrival.Upon arrival, I was told the suite was not available on the top floor and that I would have to take a second floor suite and then move a day later.  While this might not seem like a big deal, it is when you are traveling with two toddlers and two vehicles full of belongings across country.  Even more disappointing was the fact that they left the front desk employees to deliver this news and the assistant GM, who was also in the building, never made any effort to come address the situation.  In addition to not having the correct room, the rate that was associated with the room was also not the rate that was confirmed when booking.  I would receive an email 3 days later with an apology and a fix for the rate issue, but no offer to compensate for the inconvenience or the inability to honor the confirmed reservation request.  Throughout the entire next week I expected at least someone from the hotel to personally make an effort to speak with us (given we were supposed to stay for two months).  However, since there was no additional effort made, we checked out after one week and found other accommodations.This was our first time giving Marriott a chance (I am a Hilton Diamond member), and after this experience, I'm so glad to be able to return to Hilton and get the service and experience that all travelers should expect.  This experience and service recovery effort simply was not good enough.  Thanks Marriott for reminding me why I'm a loyal Hilton member.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r510281047-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>510281047</t>
+  </si>
+  <si>
+    <t>08/08/2017</t>
+  </si>
+  <si>
+    <t>Colorado Trip With My  Boys</t>
+  </si>
+  <si>
+    <t>The place was super nice and clean. Of course they just opened this summer. We had a one bedroom suite on the 4th floor.  The room had everything one could need for cooking, even a dishwasher!!  We really enjoyed our stay. The hotel is also close to the highway, which was really convenient.  The staff was very courteous and friendly. A couple of things that need some improvement are that there are no vending machines and we are forced to buy from their very overpriced little stores since there's nothing close, except Cabellas.  We ate breakfast 2 out of the 4 mornings there. There was a lot of choices, but the food was mediocre at best. They ran out of orange juice on SUNDAY morning!!!  Parking was also hard to find when we came back at night. MoreShow less</t>
+  </si>
+  <si>
+    <t>The place was super nice and clean. Of course they just opened this summer. We had a one bedroom suite on the 4th floor.  The room had everything one could need for cooking, even a dishwasher!!  We really enjoyed our stay. The hotel is also close to the highway, which was really convenient.  The staff was very courteous and friendly. A couple of things that need some improvement are that there are no vending machines and we are forced to buy from their very overpriced little stores since there's nothing close, except Cabellas.  We ate breakfast 2 out of the 4 mornings there. There was a lot of choices, but the food was mediocre at best. They ran out of orange juice on SUNDAY morning!!!  Parking was also hard to find when we came back at night. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r507510686-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -542,9 +830,6 @@
     <t xml:space="preserve">This hotel was quite understaffed but still took care of eleven of our family staying at this property. Rooms were nice as was the outdoor area. Places to bbq and hang out really help when families come together. </t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r506637583-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -575,6 +860,39 @@
     <t>This hotel is easy access off of the bypass.  It is also convenient to many restaurants. The hotel itself is beautiful.  Great place to relax outdoors next to the fire pit. The staff was very friendly. This was just a stop over for us, but we will make it a destination visit in the future. They has a nice fitness center too. The room was spacious, and the bed was comfortable. Highly recommend</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r504152140-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>504152140</t>
+  </si>
+  <si>
+    <t>07/21/2017</t>
+  </si>
+  <si>
+    <t>Great Location, New Hotel</t>
+  </si>
+  <si>
+    <t>This hotel just opened in June 2017.  Rooms were obviously clean, beds comfy, etc.  Staff was extremely friendly.  Offered print outs of local eateries and the have a shuttle bus for places within 3 miles of the hotel (including Park Meadows Mall).  An easy drive from the airport (about 25 min), near shopping, food, medical complexes.  Nice location if you have a car since parking is free and it is easy access to all the major interstates to get around. Breakfasts were very good, outside sitting area (with gas grills) were clean and had plenty of seating.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r499274908-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
+  </si>
+  <si>
+    <t>499274908</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Great New Hotel. Nice and Welcoming Staff.</t>
+  </si>
+  <si>
+    <t>We stayed here the same week that they opened, and the hotel is really beautiful and new. Customer service was also excellent here and everyone was really nice. Breakfast is included and was really good (for Marriott standards). We didn't use the pool, but we walked passed it. It is an indoor pool.This hotel is about 20 to 30 minutes away from downtown and main attractions. I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g656236-d12277175-r497284800-TownePlace_Suites_Denver_South_Lone_Tree-Lone_Tree_Colorado.html</t>
   </si>
   <si>
@@ -588,9 +906,6 @@
   </si>
   <si>
     <t>This was a really nice hotel, brand new the room is really spacious and clean smells new, my room had two separate rooms which was really nice. They provide utensils for having a barbecue perfect with this summer weather plus the pool is great too. Really recommend this hotel definitely coming back when ever visiting!MoreShow less</t>
-  </si>
-  <si>
-    <t>June 2017</t>
   </si>
   <si>
     <t>Management response:Responded June 30, 2017</t>
@@ -1242,27 +1557,19 @@
       <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="P3" t="n">
-        <v>4</v>
-      </c>
+      <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>63</v>
-      </c>
-      <c r="X3" t="s">
-        <v>64</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -1278,34 +1585,34 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="K4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1316,14 +1623,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" t="s">
-        <v>64</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -1339,41 +1642,47 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>74</v>
       </c>
-      <c r="K5" t="s">
+      <c r="O5" t="s">
         <v>75</v>
       </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" t="s"/>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
@@ -1396,52 +1705,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>79</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>81</v>
       </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" t="n">
-        <v>5</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1457,7 +1766,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
         <v>46</v>
@@ -1466,45 +1775,47 @@
         <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="N7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
       <c r="Y7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -1520,7 +1831,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1529,45 +1840,43 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>90</v>
+      </c>
+      <c r="X8" t="s">
+        <v>91</v>
+      </c>
       <c r="Y8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
@@ -1583,7 +1892,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -1592,39 +1901,49 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" t="s">
+        <v>75</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
         <v>2</v>
       </c>
-      <c r="N9" t="s">
-        <v>100</v>
-      </c>
-      <c r="O9" t="s">
-        <v>101</v>
-      </c>
-      <c r="P9" t="s"/>
-      <c r="Q9" t="s"/>
-      <c r="R9" t="s"/>
-      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>90</v>
+      </c>
+      <c r="X9" t="s">
+        <v>91</v>
+      </c>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
@@ -1640,7 +1959,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -1649,45 +1968,39 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>104</v>
       </c>
-      <c r="J10" t="s">
-        <v>105</v>
-      </c>
-      <c r="K10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" t="s">
-        <v>107</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>108</v>
-      </c>
       <c r="O10" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
@@ -1703,7 +2016,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -1712,25 +2025,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1744,7 +2057,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -1760,7 +2073,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1769,39 +2082,43 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O12" t="s">
-        <v>101</v>
-      </c>
-      <c r="P12" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13">
@@ -1817,7 +2134,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1826,32 +2143,34 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q13" t="n">
+        <v>4</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
         <v>4</v>
@@ -1862,7 +2181,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
@@ -1878,7 +2197,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1887,38 +2206,32 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
-        <v>132</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
@@ -1941,34 +2254,34 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>136</v>
+      </c>
+      <c r="J15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L15" t="s">
+        <v>139</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>122</v>
+      </c>
+      <c r="O15" t="s">
         <v>134</v>
-      </c>
-      <c r="G15" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
-      <c r="I15" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" t="s">
-        <v>136</v>
-      </c>
-      <c r="K15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L15" t="s">
-        <v>138</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>131</v>
-      </c>
-      <c r="O15" t="s">
-        <v>101</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -1982,7 +2295,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16">
@@ -1998,7 +2311,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2007,37 +2320,37 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="O16" t="s">
-        <v>144</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="n">
-        <v>4</v>
-      </c>
-      <c r="S16" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2045,7 +2358,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17">
@@ -2082,13 +2395,13 @@
         <v>149</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
         <v>150</v>
       </c>
       <c r="O17" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2099,10 +2412,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>54</v>
+      </c>
+      <c r="X17" t="s">
+        <v>55</v>
+      </c>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
@@ -2118,7 +2435,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2127,39 +2444,45 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
@@ -2175,7 +2498,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -2184,37 +2507,37 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
+      <c r="K19" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" t="s">
+        <v>163</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
         <v>157</v>
-      </c>
-      <c r="J19" t="s">
-        <v>158</v>
-      </c>
-      <c r="K19" t="s">
-        <v>159</v>
-      </c>
-      <c r="L19" t="s">
-        <v>160</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s">
-        <v>161</v>
       </c>
       <c r="O19" t="s">
         <v>62</v>
       </c>
       <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2222,7 +2545,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
@@ -2238,7 +2561,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -2247,39 +2570,43 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
         <v>62</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21">
@@ -2295,7 +2622,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -2304,45 +2631,39 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K21" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="O21" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
@@ -2358,7 +2679,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -2367,45 +2688,39 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="J22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>5</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
@@ -2421,7 +2736,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -2430,43 +2745,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
         <v>181</v>
       </c>
-      <c r="K23" t="s">
-        <v>182</v>
-      </c>
-      <c r="L23" t="s">
-        <v>183</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>184</v>
-      </c>
       <c r="O23" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>185</v>
-      </c>
-      <c r="X23" t="s">
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
         <v>186</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="24">
@@ -2482,58 +2797,48 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
         <v>188</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>189</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>190</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>191</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
         <v>192</v>
       </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>184</v>
-      </c>
       <c r="O24" t="s">
-        <v>101</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
         <v>193</v>
-      </c>
-      <c r="X24" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="25">
@@ -2549,41 +2854,41 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>194</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>195</v>
+      </c>
+      <c r="J25" t="s">
         <v>196</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>197</v>
       </c>
-      <c r="J25" t="s">
-        <v>190</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>198</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
         <v>199</v>
       </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
-      <c r="N25" t="s">
-        <v>184</v>
-      </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
-      <c r="S25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -2591,14 +2896,1098 @@
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>193</v>
-      </c>
-      <c r="X25" t="s">
-        <v>194</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
+        <v>203</v>
+      </c>
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>199</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>209</v>
+      </c>
+      <c r="L27" t="s">
+        <v>210</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>199</v>
+      </c>
+      <c r="O27" t="s">
+        <v>134</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>211</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>212</v>
+      </c>
+      <c r="J28" t="s">
+        <v>213</v>
+      </c>
+      <c r="K28" t="s">
+        <v>214</v>
+      </c>
+      <c r="L28" t="s">
+        <v>215</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>199</v>
+      </c>
+      <c r="O28" t="s">
+        <v>216</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>217</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+      <c r="J29" t="s">
+        <v>219</v>
+      </c>
+      <c r="K29" t="s">
+        <v>220</v>
+      </c>
+      <c r="L29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>199</v>
+      </c>
+      <c r="O29" t="s">
+        <v>134</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" t="s">
+        <v>224</v>
+      </c>
+      <c r="K30" t="s">
+        <v>225</v>
+      </c>
+      <c r="L30" t="s">
+        <v>226</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>227</v>
+      </c>
+      <c r="O30" t="s">
+        <v>134</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>228</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" t="s">
+        <v>230</v>
+      </c>
+      <c r="K31" t="s">
+        <v>231</v>
+      </c>
+      <c r="L31" t="s">
+        <v>232</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>227</v>
+      </c>
+      <c r="O31" t="s">
+        <v>62</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>234</v>
+      </c>
+      <c r="J32" t="s">
+        <v>235</v>
+      </c>
+      <c r="K32" t="s">
+        <v>236</v>
+      </c>
+      <c r="L32" t="s">
+        <v>237</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O32" t="s">
+        <v>134</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>239</v>
+      </c>
+      <c r="J33" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" t="s">
+        <v>241</v>
+      </c>
+      <c r="L33" t="s">
+        <v>242</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>169</v>
+      </c>
+      <c r="O33" t="s">
+        <v>62</v>
+      </c>
+      <c r="P33" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>245</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
+      <c r="K34" t="s">
+        <v>247</v>
+      </c>
+      <c r="L34" t="s">
+        <v>248</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>249</v>
+      </c>
+      <c r="O34" t="s">
+        <v>62</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>251</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>252</v>
+      </c>
+      <c r="J35" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" t="s">
+        <v>254</v>
+      </c>
+      <c r="L35" t="s">
+        <v>255</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>169</v>
+      </c>
+      <c r="O35" t="s">
+        <v>62</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>257</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>258</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+      <c r="K36" t="s">
+        <v>260</v>
+      </c>
+      <c r="L36" t="s">
+        <v>261</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>249</v>
+      </c>
+      <c r="O36" t="s">
+        <v>62</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>262</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>263</v>
+      </c>
+      <c r="J37" t="s">
+        <v>264</v>
+      </c>
+      <c r="K37" t="s">
+        <v>265</v>
+      </c>
+      <c r="L37" t="s">
+        <v>266</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>249</v>
+      </c>
+      <c r="O37" t="s">
+        <v>62</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>268</v>
+      </c>
+      <c r="J38" t="s">
+        <v>269</v>
+      </c>
+      <c r="K38" t="s">
+        <v>270</v>
+      </c>
+      <c r="L38" t="s">
+        <v>271</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>249</v>
+      </c>
+      <c r="O38" t="s">
+        <v>75</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>272</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>273</v>
+      </c>
+      <c r="J39" t="s">
+        <v>274</v>
+      </c>
+      <c r="K39" t="s">
+        <v>275</v>
+      </c>
+      <c r="L39" t="s">
+        <v>276</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>249</v>
+      </c>
+      <c r="O39" t="s">
+        <v>216</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>278</v>
+      </c>
+      <c r="J40" t="s">
+        <v>279</v>
+      </c>
+      <c r="K40" t="s">
+        <v>280</v>
+      </c>
+      <c r="L40" t="s">
+        <v>281</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>282</v>
+      </c>
+      <c r="O40" t="s">
+        <v>134</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>283</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>284</v>
+      </c>
+      <c r="J41" t="s">
+        <v>285</v>
+      </c>
+      <c r="K41" t="s">
+        <v>286</v>
+      </c>
+      <c r="L41" t="s">
+        <v>287</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>282</v>
+      </c>
+      <c r="O41" t="s">
+        <v>62</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>288</v>
+      </c>
+      <c r="X41" t="s">
+        <v>289</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>291</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>292</v>
+      </c>
+      <c r="J42" t="s">
+        <v>293</v>
+      </c>
+      <c r="K42" t="s">
+        <v>294</v>
+      </c>
+      <c r="L42" t="s">
+        <v>295</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>282</v>
+      </c>
+      <c r="O42" t="s">
+        <v>134</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>296</v>
+      </c>
+      <c r="X42" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>66111</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>299</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>300</v>
+      </c>
+      <c r="J43" t="s">
+        <v>293</v>
+      </c>
+      <c r="K43" t="s">
+        <v>301</v>
+      </c>
+      <c r="L43" t="s">
+        <v>302</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>282</v>
+      </c>
+      <c r="O43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>296</v>
+      </c>
+      <c r="X43" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
